--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail10 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4180,29 +4180,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>2.195242780315158e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5937676799915113</v>
+        <v>9.072254008218644e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7239993832089842</v>
+        <v>5.003457164026277e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.072254008218644e-07</v>
+        <v>-0.04711403877793388</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.003457164026277e-06</v>
+        <v>0.2087112752779382</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04711403877793388</v>
+        <v>0.04572131306734887</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2087112752779382</v>
+        <v>1.576817366806834</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04572131306734887</v>
+        <v>1.424852531455914</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.495343353501857</v>
+        <v>4.300474159534101</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.424852531455914</v>
+        <v>3.759981900258295e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.300474159534101</v>
+        <v>14351368.65802447</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.759981900258295e-14</v>
+        <v>7.50533371554418e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>14351368.65802447</v>
+        <v>7.744125738130003</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.50533371554418e-06</v>
+        <v>0.0001403579538729338</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.744125738130003</v>
+        <v>10.71560946269962</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001403579538729338</v>
+        <v>1.461509964099046</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.71560946269962</v>
+        <v>0.01611650185993046</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.461509964099046</v>
+        <v>3.142084569289191</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01611650185993046</v>
+        <v>0.9463152749613488</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.142084569289191</v>
+        <v>1.825634453666319</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9463152749613488</v>
+        <v>7</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.825634453666319</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2071091493275568</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>2.084081345400678e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.546489421186764</v>
+        <v>7.300898769292512e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8377414496337865</v>
+        <v>4.994409827039406e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.300898769292512e-07</v>
+        <v>-0.03820753280947377</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.994409827039406e-06</v>
+        <v>0.193901913951207</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03820753280947377</v>
+        <v>0.03902381109508266</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.193901913951207</v>
+        <v>1.629043733824776</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03902381109508266</v>
+        <v>1.616146518876998</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.545244743376171</v>
+        <v>4.203814902588849</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.616146518876998</v>
+        <v>3.337591549906685e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.203814902588849</v>
+        <v>15866842.63439781</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.337591549906685e-14</v>
+        <v>6.944853267085544e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>15866842.63439781</v>
+        <v>8.402610184810351</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.944853267085544e-06</v>
+        <v>0.0001383875883004863</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.402610184810351</v>
+        <v>9.397209269721024</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001383875883004863</v>
+        <v>1.28967156833134</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.397209269721024</v>
+        <v>0.01222066777427918</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.28967156833134</v>
+        <v>3.06967683610231</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01222066777427918</v>
+        <v>0.9506730783926197</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.06967683610231</v>
+        <v>1.782621576921899</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9506730783926197</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.782621576921899</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1965999970049342</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>2.021789668921642e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.583879574537115</v>
+        <v>6.927173459093397e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7218531757504087</v>
+        <v>4.98722535798374e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.927173459093397e-07</v>
+        <v>-0.03254070177512729</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.98722535798374e-06</v>
+        <v>0.1872218137054661</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03254070177512729</v>
+        <v>0.03609487795010556</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1872218137054661</v>
+        <v>1.677733801970118</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03609487795010556</v>
+        <v>1.454267674295285</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.595225867170845</v>
+        <v>4.513348281427161</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.454267674295285</v>
+        <v>2.895493951565493e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.513348281427161</v>
+        <v>17278514.80504874</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.895493951565493e-14</v>
+        <v>6.482647867715535e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>17278514.80504874</v>
+        <v>8.644412466432057</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.482647867715535e-06</v>
+        <v>0.0001402157311303312</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.644412466432057</v>
+        <v>8.897364147222888</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001402157311303312</v>
+        <v>1.21438438357303</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.897364147222888</v>
+        <v>0.01109991037018071</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.21438438357303</v>
+        <v>2.961909850137113</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01109991037018071</v>
+        <v>0.9541464056175228</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.961909850137113</v>
+        <v>1.708670467902895</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9541464056175228</v>
+        <v>24</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.708670467902895</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1972634441434466</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>1.985049731984143e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.651270714805345</v>
+        <v>6.927173459093397e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5634061480859698</v>
+        <v>4.980964857538872e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.927173459093397e-07</v>
+        <v>-0.03067812108654756</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.980964857538872e-06</v>
+        <v>0.1873111824250565</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03067812108654756</v>
+        <v>0.03602013074131307</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1873111824250565</v>
+        <v>1.727513066686348</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03602013074131307</v>
+        <v>1.508464747783984</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.648468480407233</v>
+        <v>4.360353111519538</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.508464747783984</v>
+        <v>1.744944704323028e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.360353111519538</v>
+        <v>27174064.55218239</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.744944704323028e-14</v>
+        <v>4.256399794683815e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>27174064.55218239</v>
+        <v>12.88519141604558</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.256399794683815e-06</v>
+        <v>0.000129378374665741</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>12.88519141604558</v>
+        <v>9.004404637686019</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000129378374665741</v>
+        <v>1.132203575412361</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.004404637686019</v>
+        <v>0.01048990842553984</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.132203575412361</v>
+        <v>2.974184900995774</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01048990842553984</v>
+        <v>0.957288928166499</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.974184900995774</v>
+        <v>1.756874097678448</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.957288928166499</v>
+        <v>29</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.756874097678448</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2082722585530151</v>
       </c>
     </row>
@@ -4668,72 +4632,66 @@
         <v>1.961461507656475e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7277689069418942</v>
+        <v>6.927173459093397e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4068563431465009</v>
+        <v>4.974911833160948e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.927173459093397e-07</v>
+        <v>-0.03071788005215638</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.974911833160948e-06</v>
+        <v>0.1892498536256386</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03071788005215638</v>
+        <v>0.03675362437775794</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1892498536256386</v>
+        <v>1.752088891895641</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03675362437775794</v>
+        <v>1.658347785218472</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.680053182052945</v>
+        <v>4.051460624174027</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.658347785218472</v>
+        <v>1.487930893299628e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.051460624174027</v>
+        <v>30372091.0840175</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.487930893299628e-14</v>
+        <v>3.817856924822408e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>30372091.0840175</v>
+        <v>13.72562559784489</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.817856924822408e-06</v>
+        <v>0.0001213472778724613</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>13.72562559784489</v>
+        <v>9.578468211009756</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001213472778724613</v>
+        <v>1.085362509002004</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.578468211009756</v>
+        <v>0.01113325516705223</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.085362509002004</v>
+        <v>2.950308505901987</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01113325516705223</v>
+        <v>0.9573302078955105</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.950308505901987</v>
+        <v>1.734072162891626</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9573302078955105</v>
+        <v>29</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.734072162891626</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2206681291275681</v>
       </c>
     </row>
@@ -4748,72 +4706,66 @@
         <v>1.948603333702094e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8041618800541528</v>
+        <v>6.927173459093397e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2672918947330847</v>
+        <v>4.968987131838569e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.927173459093397e-07</v>
+        <v>-0.02976842403051983</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.968987131838569e-06</v>
+        <v>0.1894338172545924</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02976842403051983</v>
+        <v>0.03676594656912447</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1894338172545924</v>
+        <v>1.765685737365937</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03676594656912447</v>
+        <v>1.592630546103084</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.702470593237758</v>
+        <v>4.130371302947151</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.592630546103084</v>
+        <v>1.431620196083079e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.130371302947151</v>
+        <v>31630853.51202028</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.431620196083079e-14</v>
+        <v>3.668908237189164e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>31630853.51202028</v>
+        <v>14.32351602106779</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.668908237189164e-06</v>
+        <v>0.000131665501697242</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14.32351602106779</v>
+        <v>9.028481023020596</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000131665501697242</v>
+        <v>1.342780129453957</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.028481023020596</v>
+        <v>0.01073251186773424</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.342780129453957</v>
+        <v>3.125426301888086</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01073251186773424</v>
+        <v>0.9563234469575207</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.125426301888086</v>
+        <v>1.685335577406637</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9563234469575207</v>
+        <v>29</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.685335577406637</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.201774559776238</v>
       </c>
     </row>
@@ -4828,72 +4780,66 @@
         <v>1.945775660332289e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8723124038732761</v>
+        <v>6.927173459093397e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.1587854764751375</v>
+        <v>4.963364961684162e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.927173459093397e-07</v>
+        <v>-0.02791762755482252</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.963364961684162e-06</v>
+        <v>0.1881648473227631</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02791762755482252</v>
+        <v>0.03618140098653352</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1881648473227631</v>
+        <v>1.770515336908755</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03618140098653352</v>
+        <v>1.581441204361972</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.716272509763379</v>
+        <v>4.257790016384609</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.581441204361972</v>
+        <v>1.078504799192331e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.257790016384609</v>
+        <v>41736335.00838438</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.078504799192331e-14</v>
+        <v>2.780531206056477e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>41736335.00838438</v>
+        <v>18.78670870053832</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.780531206056477e-06</v>
+        <v>0.0001502313413681694</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>18.78670870053832</v>
+        <v>8.393311600317775</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001502313413681694</v>
+        <v>1.538123265168525</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.393311600317775</v>
+        <v>0.01058344940559199</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.538123265168525</v>
+        <v>3.094134374272513</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01058344940559199</v>
+        <v>0.9563422242842117</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.094134374272513</v>
+        <v>1.729238973067847</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9563422242842117</v>
+        <v>29</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.729238973067847</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1867335874842379</v>
       </c>
     </row>
@@ -4908,72 +4854,66 @@
         <v>1.950324409510049e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.9282871185022576</v>
+        <v>6.927173459093397e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.08317675182174789</v>
+        <v>4.958151619356045e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.927173459093397e-07</v>
+        <v>-0.02561768128712963</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.958151619356045e-06</v>
+        <v>0.1863024266733553</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02561768128712963</v>
+        <v>0.03536229769881027</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1863024266733553</v>
+        <v>1.785508386304075</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03536229769881027</v>
+        <v>1.728111491726533</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.737007467796616</v>
+        <v>4.102001781397234</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.728111491726533</v>
+        <v>9.095037526981769e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.102001781397234</v>
+        <v>51600152.29552129</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.095037526981769e-15</v>
+        <v>2.257113626572258e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>51600152.29552129</v>
+        <v>24.2162260638268</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.257113626572258e-06</v>
+        <v>0.0001392482803261792</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>24.2162260638268</v>
+        <v>8.135840948083514</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001392482803261792</v>
+        <v>1.366895720106884</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.135840948083514</v>
+        <v>0.00921710935111114</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.366895720106884</v>
+        <v>3.074855215336744</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00921710935111114</v>
+        <v>0.955497303731212</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.074855215336744</v>
+        <v>1.717483684079362</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.955497303731212</v>
+        <v>29</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.717483684079362</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1984725178891377</v>
       </c>
     </row>
@@ -5350,7 +5290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.441203136830267</v>
+        <v>1.467176442095589</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.2933948675022</v>
@@ -5439,7 +5379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.470978172302936</v>
+        <v>1.497397827219647</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.1077906606273</v>
@@ -5528,7 +5468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.498106782265934</v>
+        <v>1.521419028694881</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.238421453782878</v>
@@ -5617,7 +5557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.541970322892829</v>
+        <v>1.558787695819153</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.41313811875282</v>
@@ -5706,7 +5646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.561978099534609</v>
+        <v>1.580720485590765</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.40668232841933</v>
@@ -5795,7 +5735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.580110549326535</v>
+        <v>1.595310344888229</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.490678888518561</v>
@@ -5884,7 +5824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.590472584494153</v>
+        <v>1.607029867746623</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.276284017751029</v>
@@ -5973,7 +5913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.566166778562552</v>
+        <v>1.584397506977771</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.349996648925998</v>
@@ -6062,7 +6002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.561170240665496</v>
+        <v>1.579854868160368</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.307068310535276</v>
@@ -6151,7 +6091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.559781731874461</v>
+        <v>1.579963681794698</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.33670170511228</v>
@@ -6240,7 +6180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553459097633517</v>
+        <v>1.570746261094521</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.209474128363448</v>
@@ -6329,7 +6269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.54689217956928</v>
+        <v>1.56667666150744</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.155409119468702</v>
@@ -6418,7 +6358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.550305977663564</v>
+        <v>1.567227857643756</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.229811413077169</v>
@@ -6507,7 +6447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.580317900714087</v>
+        <v>1.587591538310122</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.180019591248692</v>
@@ -6596,7 +6536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.585821291116309</v>
+        <v>1.598002214013322</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.778878067899122</v>
@@ -6685,7 +6625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.586516080899178</v>
+        <v>1.60039762026371</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.685763286959268</v>
@@ -6774,7 +6714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.58567800435385</v>
+        <v>1.600194946240188</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.663487078418568</v>
@@ -6863,7 +6803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.584419356495662</v>
+        <v>1.59668843870408</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.748618465345919</v>
@@ -6952,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586760698199358</v>
+        <v>1.602123027594762</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.804911466498397</v>
@@ -7041,7 +6981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.583101812692519</v>
+        <v>1.593750074076883</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.668843348799556</v>
@@ -7130,7 +7070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.558127943109099</v>
+        <v>1.569573703631461</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.610150966991977</v>
@@ -7219,7 +7159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.527734180388113</v>
+        <v>1.546283798984774</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.657414531800968</v>
@@ -7308,7 +7248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.542065788905849</v>
+        <v>1.560270401263279</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.649561480607411</v>
@@ -7397,7 +7337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.541326644968471</v>
+        <v>1.562657901984237</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.579980023049772</v>
@@ -7486,7 +7426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.516246173951208</v>
+        <v>1.542422505469564</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.598969918168157</v>
@@ -7575,7 +7515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.502966248598749</v>
+        <v>1.530043037422131</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.575866819853883</v>
@@ -7664,7 +7604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.476226927249565</v>
+        <v>1.501493285398826</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.211123999575372</v>
@@ -7753,7 +7693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.428025419920129</v>
+        <v>1.463095193838355</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.006491232144985</v>
@@ -7842,7 +7782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.423559535469123</v>
+        <v>1.462248779000658</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.049258939230007</v>
@@ -7931,7 +7871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.433833966435509</v>
+        <v>1.473522969547436</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.039873715335288</v>
@@ -8020,7 +7960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.417205366398184</v>
+        <v>1.455083090462352</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.061509584028268</v>
@@ -8109,7 +8049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.428013283494595</v>
+        <v>1.467281768867001</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.073327921883779</v>
@@ -8198,7 +8138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.426275263309859</v>
+        <v>1.46654356850874</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.099757541563862</v>
@@ -8287,7 +8227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.434056742594816</v>
+        <v>1.475063124090981</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.103347263382838</v>
@@ -8376,7 +8316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.438596148741678</v>
+        <v>1.481117712727001</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.110078101867694</v>
@@ -8465,7 +8405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.455059246508882</v>
+        <v>1.496832557050539</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.040101225615599</v>
@@ -8554,7 +8494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.46672039722797</v>
+        <v>1.508039744502083</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.055780063299513</v>
@@ -8643,7 +8583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.462551417422399</v>
+        <v>1.503264650962437</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.089431737713852</v>
@@ -8732,7 +8672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.453617750160919</v>
+        <v>1.497167499996905</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.13262532746528</v>
@@ -8821,7 +8761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.469728755489544</v>
+        <v>1.509981910745574</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.093883445321545</v>
@@ -8910,7 +8850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.488262659931087</v>
+        <v>1.530369366222486</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.06076710586365</v>
@@ -8999,7 +8939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.50614645868967</v>
+        <v>1.546796189465076</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.011095660452863</v>
@@ -9088,7 +9028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.576609691558684</v>
+        <v>1.603869927083574</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.494980525673685</v>
@@ -9177,7 +9117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.579588239055761</v>
+        <v>1.603506674936534</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.421661371115423</v>
@@ -9266,7 +9206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.580154773757966</v>
+        <v>1.600553352095183</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.464403463613502</v>
@@ -9355,7 +9295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.622017814877249</v>
+        <v>1.637978137413525</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.390802798726484</v>
@@ -9444,7 +9384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.617304885851305</v>
+        <v>1.632679833398552</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.856796110873354</v>
@@ -9533,7 +9473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.625358378581628</v>
+        <v>1.635385279190656</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.549262254391773</v>
@@ -9622,7 +9562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.625345586458923</v>
+        <v>1.630686487469186</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.584628075370752</v>
@@ -9711,7 +9651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617768547814253</v>
+        <v>1.622367343457515</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.398668804985656</v>
@@ -9800,7 +9740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.618342251720157</v>
+        <v>1.628977249899354</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.554161895586591</v>
@@ -9889,7 +9829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.598947940905182</v>
+        <v>1.615353977841929</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.633525695054847</v>
@@ -9978,7 +9918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.612592116609677</v>
+        <v>1.623326492737016</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.44397312559936</v>
@@ -10264,7 +10204,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.485024970496557</v>
+        <v>1.504274269163415</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.279668820559126</v>
@@ -10353,7 +10293,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.508940009846407</v>
+        <v>1.52450042223465</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.163662991741175</v>
@@ -10442,7 +10382,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.510714266449777</v>
+        <v>1.526097524293716</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.308704740110777</v>
@@ -10531,7 +10471,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.533895439145831</v>
+        <v>1.547472411408258</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.116770224345763</v>
@@ -10620,7 +10560,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.550763419437236</v>
+        <v>1.555077290550922</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.537949038247131</v>
@@ -10709,7 +10649,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.558976185814607</v>
+        <v>1.564178971597729</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.594663027513512</v>
@@ -10798,7 +10738,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.558718053396959</v>
+        <v>1.56725240731769</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.661568955346242</v>
@@ -10887,7 +10827,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.535144750970596</v>
+        <v>1.546773901773114</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.701883479228397</v>
@@ -10976,7 +10916,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.534521149216261</v>
+        <v>1.543421130278391</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.555861022899735</v>
@@ -11065,7 +11005,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.550023586362942</v>
+        <v>1.556169315879793</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.60733451723178</v>
@@ -11154,7 +11094,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.565791189667157</v>
+        <v>1.569724211526412</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.509560877266209</v>
@@ -11243,7 +11183,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.559016964273604</v>
+        <v>1.562583815347105</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.382740155008098</v>
@@ -11332,7 +11272,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.56587081613277</v>
+        <v>1.566980970520072</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.543661730066725</v>
@@ -11421,7 +11361,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.581302020382935</v>
+        <v>1.581179291973488</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.457749642812576</v>
@@ -11510,7 +11450,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565793710047045</v>
+        <v>1.563856184584496</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.494572354969145</v>
@@ -11599,7 +11539,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.564538144464415</v>
+        <v>1.561385424066783</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.483921099507286</v>
@@ -11688,7 +11628,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.524044543977456</v>
+        <v>1.531954307235995</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.486707015000709</v>
@@ -11777,7 +11717,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544140311966927</v>
+        <v>1.550578758810703</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.455519766682608</v>
@@ -11866,7 +11806,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.542536069666322</v>
+        <v>1.548053894888464</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.495539547732058</v>
@@ -11955,7 +11895,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.523630222209061</v>
+        <v>1.532336855578248</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.444576778762534</v>
@@ -12044,7 +11984,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.359164560165568</v>
+        <v>1.355756681867464</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.595199495314052</v>
@@ -12133,7 +12073,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.309597002566614</v>
+        <v>1.326678484389068</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.610477101381487</v>
@@ -12222,7 +12162,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.306860433313728</v>
+        <v>1.322435157930039</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.606219519438216</v>
@@ -12311,7 +12251,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.30440466756031</v>
+        <v>1.321416866569101</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.615978615331459</v>
@@ -12400,7 +12340,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.231537139539605</v>
+        <v>1.245647186093838</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.678619823160699</v>
@@ -12489,7 +12429,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.223734758897839</v>
+        <v>1.237298040488749</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.692448142260909</v>
@@ -12578,7 +12518,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.21941271417659</v>
+        <v>1.230111613403781</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.712570952242382</v>
@@ -12667,7 +12607,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.215243400108691</v>
+        <v>1.231902588971561</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.809082295953103</v>
@@ -12756,7 +12696,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.203323223543093</v>
+        <v>1.221410931674814</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.812165586678836</v>
@@ -12845,7 +12785,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.207948108605812</v>
+        <v>1.225869424267723</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.8294275187912</v>
@@ -12934,7 +12874,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.207125233758857</v>
+        <v>1.222331334402503</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.777438536773179</v>
@@ -13023,7 +12963,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.22095283489721</v>
+        <v>1.239543661540209</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.837429184488963</v>
@@ -13112,7 +13052,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.227121094291856</v>
+        <v>1.248436861857938</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.861744137222605</v>
@@ -13201,7 +13141,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.228304329291372</v>
+        <v>1.249266346748227</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.857653228739845</v>
@@ -13290,7 +13230,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.235513828645192</v>
+        <v>1.255755053699584</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.84202839075503</v>
@@ -13379,7 +13319,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.28317218220497</v>
+        <v>1.308831530620735</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.711312879736554</v>
@@ -13468,7 +13408,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.294369991545207</v>
+        <v>1.319827007320432</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.832459084145256</v>
@@ -13557,7 +13497,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.299189311480504</v>
+        <v>1.324637957190024</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.869515365133436</v>
@@ -13646,7 +13586,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.305209934150322</v>
+        <v>1.331639867768951</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.775059356124186</v>
@@ -13735,7 +13675,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.374317641257357</v>
+        <v>1.403092034697066</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.735281985404755</v>
@@ -13824,7 +13764,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.386712402536125</v>
+        <v>1.416876026310487</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.818518386209839</v>
@@ -13913,7 +13853,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.410814533934664</v>
+        <v>1.439893827424962</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.677430459046773</v>
@@ -14002,7 +13942,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.50224826821213</v>
+        <v>1.518781144451161</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.061042235289718</v>
@@ -14091,7 +14031,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.53305006811186</v>
+        <v>1.549953909432054</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.626170812687797</v>
@@ -14180,7 +14120,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.544560732926527</v>
+        <v>1.558565571451138</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.596316580454186</v>
@@ -14269,7 +14209,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.582460440615187</v>
+        <v>1.594729017414775</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.549647983316151</v>
@@ -14358,7 +14298,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.584056692759261</v>
+        <v>1.593093323873518</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.643738977425155</v>
@@ -14447,7 +14387,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.570221351456398</v>
+        <v>1.569732811434652</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.520933998212697</v>
@@ -14536,7 +14476,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585717737329885</v>
+        <v>1.585543351600685</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.639714037350148</v>
@@ -14625,7 +14565,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.583621240279057</v>
+        <v>1.578323971510093</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.629982112754238</v>
@@ -14714,7 +14654,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.58451689009971</v>
+        <v>1.567177480892586</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.152474424229519</v>
@@ -14803,7 +14743,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.531340846748926</v>
+        <v>1.52846163580554</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.251132402043707</v>
@@ -14892,7 +14832,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.550257843637381</v>
+        <v>1.544076992384961</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.132073305878976</v>
@@ -15178,7 +15118,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.466438794842589</v>
+        <v>1.479907076265419</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.670882043616623</v>
@@ -15267,7 +15207,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.485439586061245</v>
+        <v>1.494120535227537</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.577449574828292</v>
@@ -15356,7 +15296,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.467527968192271</v>
+        <v>1.481085801429652</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.609418244381054</v>
@@ -15445,7 +15385,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.444387123843363</v>
+        <v>1.455219221971544</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.575548472235435</v>
@@ -15534,7 +15474,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.436671480893177</v>
+        <v>1.448056160950066</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.616541926524694</v>
@@ -15623,7 +15563,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.450115988691288</v>
+        <v>1.463799886964286</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.298312162688941</v>
@@ -15712,7 +15652,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.452289355391307</v>
+        <v>1.462227483319654</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.648681723490665</v>
@@ -15801,7 +15741,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.439049690614526</v>
+        <v>1.445101298026565</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.51059049175503</v>
@@ -15890,7 +15830,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.443879361278225</v>
+        <v>1.447227035068634</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.289831964729306</v>
@@ -15979,7 +15919,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.48294496745726</v>
+        <v>1.479129013926832</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.481353936004804</v>
@@ -16068,7 +16008,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.479969246418243</v>
+        <v>1.469073049701268</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.400354686040362</v>
@@ -16157,7 +16097,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.475165302199602</v>
+        <v>1.478706616761787</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.219591153751961</v>
@@ -16246,7 +16186,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.495979994645273</v>
+        <v>1.495492039754672</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.354203970401747</v>
@@ -16335,7 +16275,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.499027135131149</v>
+        <v>1.499238165738968</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.457063194317558</v>
@@ -16424,7 +16364,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.481852565413778</v>
+        <v>1.486877469127141</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.529371270568854</v>
@@ -16513,7 +16453,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.481412492551277</v>
+        <v>1.488170254855709</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.428860910984834</v>
@@ -16602,7 +16542,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.493655384620849</v>
+        <v>1.502333522319097</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.286214831985987</v>
@@ -16691,7 +16631,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.490265845370249</v>
+        <v>1.500373313212656</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.468801159242033</v>
@@ -16780,7 +16720,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.50483510067077</v>
+        <v>1.516261157949125</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.608667293824908</v>
@@ -16869,7 +16809,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.506245256929021</v>
+        <v>1.515368953624429</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.420960549726241</v>
@@ -16958,7 +16898,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.487236168158977</v>
+        <v>1.490272125048591</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.435055151178237</v>
@@ -17047,7 +16987,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.465573972453154</v>
+        <v>1.477190871958332</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.424257144621473</v>
@@ -17136,7 +17076,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.479670190110071</v>
+        <v>1.493623556753263</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.372167029699358</v>
@@ -17225,7 +17165,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.491048100470325</v>
+        <v>1.50635104349812</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.379377194564344</v>
@@ -17314,7 +17254,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.444734707882536</v>
+        <v>1.467393257333841</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.167674946819389</v>
@@ -17403,7 +17343,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.450125576043848</v>
+        <v>1.473394194166157</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.120563071963367</v>
@@ -17492,7 +17432,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.446699200738764</v>
+        <v>1.466583677464897</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.257918114511484</v>
@@ -17581,7 +17521,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.475883521482594</v>
+        <v>1.488172344328981</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.391977643920556</v>
@@ -17670,7 +17610,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.436960820446596</v>
+        <v>1.453748740621322</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.286477291525995</v>
@@ -17759,7 +17699,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.435963588963266</v>
+        <v>1.45492002529044</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.271320509585209</v>
@@ -17848,7 +17788,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.435235247768739</v>
+        <v>1.45132953078089</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.361133865277193</v>
@@ -17937,7 +17877,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.450458403620357</v>
+        <v>1.469325594512314</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.376471578518502</v>
@@ -18026,7 +17966,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.46432722753854</v>
+        <v>1.488187347532936</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.39645762516367</v>
@@ -18115,7 +18055,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.481733463726324</v>
+        <v>1.50453962395001</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.421279700863866</v>
@@ -18204,7 +18144,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.483885358187689</v>
+        <v>1.507844765675224</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.403164167209932</v>
@@ -18293,7 +18233,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.501640407465671</v>
+        <v>1.524669842313447</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.308986322973206</v>
@@ -18382,7 +18322,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.489192316807942</v>
+        <v>1.517764701229664</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.488436468284577</v>
@@ -18471,7 +18411,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.475074616683551</v>
+        <v>1.503148001876949</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.454518861171701</v>
@@ -18560,7 +18500,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.470306151765185</v>
+        <v>1.494003219581483</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.492749079469294</v>
@@ -18649,7 +18589,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.502775329639016</v>
+        <v>1.52650689426031</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.437133384073016</v>
@@ -18738,7 +18678,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.50480658811388</v>
+        <v>1.529434357956901</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.54974980463037</v>
@@ -18827,7 +18767,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.510393529235654</v>
+        <v>1.533801485400795</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.519837107079717</v>
@@ -18916,7 +18856,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.490645652073705</v>
+        <v>1.515162143205254</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.240820876008828</v>
@@ -19005,7 +18945,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.513478906235427</v>
+        <v>1.536070776546813</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.591412594278224</v>
@@ -19094,7 +19034,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.516562580675459</v>
+        <v>1.538053047017534</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.63210582377675</v>
@@ -19183,7 +19123,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.511686177592153</v>
+        <v>1.538230156848316</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.537619054128303</v>
@@ -19272,7 +19212,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.508535585548555</v>
+        <v>1.529229903259181</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.521021165494417</v>
@@ -19361,7 +19301,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.491947261698651</v>
+        <v>1.513335689859902</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.525146001388823</v>
@@ -19450,7 +19390,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.471137728783752</v>
+        <v>1.491389514816342</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.387717770592801</v>
@@ -19539,7 +19479,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.457196538043733</v>
+        <v>1.476934417405018</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.312910965800961</v>
@@ -19628,7 +19568,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.46711980412299</v>
+        <v>1.484252494430944</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.281445357695462</v>
@@ -19717,7 +19657,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.486367838236079</v>
+        <v>1.502262626587573</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.598752792639297</v>
@@ -19806,7 +19746,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.485025422003312</v>
+        <v>1.500919340597679</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.617832388205882</v>
@@ -20092,7 +20032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.182639444380582</v>
+        <v>1.180455782880901</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.733899474857303</v>
@@ -20181,7 +20121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.211011304753993</v>
+        <v>1.214963031969255</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.71735750747762</v>
@@ -20270,7 +20210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.213738012551053</v>
+        <v>1.216958993556051</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.667587859530233</v>
@@ -20359,7 +20299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.171971694462756</v>
+        <v>1.168563782636555</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.742840251460308</v>
@@ -20448,7 +20388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.162607262590477</v>
+        <v>1.16087048449454</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.741533522705171</v>
@@ -20537,7 +20477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.189623808552387</v>
+        <v>1.191460760826391</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.551729670646355</v>
@@ -20626,7 +20566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.201130666048664</v>
+        <v>1.20792283319441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.657707307828914</v>
@@ -20715,7 +20655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.16988368125489</v>
+        <v>1.168450500438315</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.719160786825084</v>
@@ -20804,7 +20744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.158472712560885</v>
+        <v>1.157748014866111</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.713543039306475</v>
@@ -20893,7 +20833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.162926387694963</v>
+        <v>1.162549248910502</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.689625709352665</v>
@@ -20982,7 +20922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.168900904762029</v>
+        <v>1.1698395785528</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.695553402520717</v>
@@ -21071,7 +21011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.176757546978562</v>
+        <v>1.174519401801822</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.594545158730026</v>
@@ -21160,7 +21100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.203087882503637</v>
+        <v>1.207057078019133</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.615385440735154</v>
@@ -21249,7 +21189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.20053987064988</v>
+        <v>1.204758204378902</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.63804616133223</v>
@@ -21338,7 +21278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.166212587643964</v>
+        <v>1.162698127337466</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.693492251099383</v>
@@ -21427,7 +21367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.154822287829408</v>
+        <v>1.152163989481021</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.686113405283533</v>
@@ -21516,7 +21456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.162295034535178</v>
+        <v>1.161121135234025</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.686072207723921</v>
@@ -21605,7 +21545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.163533360808563</v>
+        <v>1.162216701904335</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.726397628126799</v>
@@ -21694,7 +21634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.165506607696657</v>
+        <v>1.163846135563403</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.737112578483485</v>
@@ -21783,7 +21723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.165457041038376</v>
+        <v>1.165065544400625</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.679033493364143</v>
@@ -21872,7 +21812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.157253437238767</v>
+        <v>1.155205554060487</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.702586587879235</v>
@@ -21961,7 +21901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.162035383708373</v>
+        <v>1.158623243519217</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.687579866601642</v>
@@ -22050,7 +21990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.194817585052123</v>
+        <v>1.197251196860642</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.624948322361611</v>
@@ -22139,7 +22079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.188722933780332</v>
+        <v>1.190291554800746</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.648995690218761</v>
@@ -22228,7 +22168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.153454636187708</v>
+        <v>1.150016917856301</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.713401549674141</v>
@@ -22317,7 +22257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.152645748438155</v>
+        <v>1.150615454694524</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.724422500035246</v>
@@ -22406,7 +22346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.158567783390178</v>
+        <v>1.158355390758297</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.728614237963838</v>
@@ -22495,7 +22435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.20809925412571</v>
+        <v>1.197188180298237</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.769711032766673</v>
@@ -22584,7 +22524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.152851980284305</v>
+        <v>1.152692431087535</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.768422153091973</v>
@@ -22673,7 +22613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.182378583929258</v>
+        <v>1.186211265540216</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.712948992348595</v>
@@ -22762,7 +22702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.190971880264804</v>
+        <v>1.197263702312727</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.736305245106026</v>
@@ -22851,7 +22791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.189434219324142</v>
+        <v>1.181687608799613</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.811030862233547</v>
@@ -22940,7 +22880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.166520217247154</v>
+        <v>1.168803881531764</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.820512904778613</v>
@@ -23029,7 +22969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.200968618303712</v>
+        <v>1.208836871235923</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.793314765067419</v>
@@ -23118,7 +23058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.208871011912123</v>
+        <v>1.216365447363398</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.755240076497004</v>
@@ -23207,7 +23147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.211147659650311</v>
+        <v>1.217841031155508</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.752766368739354</v>
@@ -23296,7 +23236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.207685000170031</v>
+        <v>1.217048009118991</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.773895643808899</v>
@@ -23385,7 +23325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.202993185487787</v>
+        <v>1.198769195844092</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.78341155870044</v>
@@ -23474,7 +23414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.183882549403961</v>
+        <v>1.190655007782379</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.848621390641551</v>
@@ -23563,7 +23503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.213052496850491</v>
+        <v>1.225865365713384</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.747683293474712</v>
@@ -23652,7 +23592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.216406190498122</v>
+        <v>1.228987003094015</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.74037315239532</v>
@@ -23741,7 +23681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.211949932675844</v>
+        <v>1.220259096120959</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.785867335939483</v>
@@ -23830,7 +23770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.197623303108495</v>
+        <v>1.196353234920264</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.575849511484641</v>
@@ -23919,7 +23859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.201564784030406</v>
+        <v>1.206870401373405</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.750871660851724</v>
@@ -24008,7 +23948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.202096593283965</v>
+        <v>1.207588179640313</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.749587989868709</v>
@@ -24097,7 +24037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.19655845674721</v>
+        <v>1.199889538867986</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.742935899627458</v>
@@ -24186,7 +24126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.225373644707117</v>
+        <v>1.229193989801561</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.613856655090738</v>
@@ -24275,7 +24215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.194178890683656</v>
+        <v>1.191932117593234</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.754449492663704</v>
@@ -24364,7 +24304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.183402498569402</v>
+        <v>1.182657202800606</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.737150712624369</v>
@@ -24453,7 +24393,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.176443477373754</v>
+        <v>1.17406878636355</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.734181880329623</v>
@@ -24542,7 +24482,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.179656495591615</v>
+        <v>1.178026386821031</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.692780936807901</v>
@@ -24631,7 +24571,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.172986482469498</v>
+        <v>1.168496432277845</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.710336962085469</v>
@@ -24720,7 +24660,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.209651019739217</v>
+        <v>1.206727909284153</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.59967078753807</v>
@@ -25006,7 +24946,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.586278065421764</v>
+        <v>1.607098331786729</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.840507808823811</v>
@@ -25095,7 +25035,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.612307101700693</v>
+        <v>1.63169042614664</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.747351549248873</v>
@@ -25184,7 +25124,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.610060650917173</v>
+        <v>1.628818145268181</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.748938835816158</v>
@@ -25273,7 +25213,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.59572369623706</v>
+        <v>1.613404882073168</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.571781435053991</v>
@@ -25362,7 +25302,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.595033789111125</v>
+        <v>1.616966379480303</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.776168979256301</v>
@@ -25451,7 +25391,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.622241016997674</v>
+        <v>1.645637852183495</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.515883678774985</v>
@@ -25540,7 +25480,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.618137594952742</v>
+        <v>1.645688982655505</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.99023228436599</v>
@@ -25629,7 +25569,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.589723798462671</v>
+        <v>1.614297975077692</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.677464671037831</v>
@@ -25718,7 +25658,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.600738409423111</v>
+        <v>1.632983526206468</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.611267267762016</v>
@@ -25807,7 +25747,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.620174998819239</v>
+        <v>1.646572382819228</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.835108034995196</v>
@@ -25896,7 +25836,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.613403577053639</v>
+        <v>1.645373169534063</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.802729293396073</v>
@@ -25985,7 +25925,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.602449057161701</v>
+        <v>1.633605306291812</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.602404398107297</v>
@@ -26074,7 +26014,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.635832380408974</v>
+        <v>1.667928257996472</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.785988098187845</v>
@@ -26163,7 +26103,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.634155006323108</v>
+        <v>1.66133521116234</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.766227055099715</v>
@@ -26252,7 +26192,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.605357513209807</v>
+        <v>1.6341006703994</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.662404149054114</v>
@@ -26341,7 +26281,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.606767269577515</v>
+        <v>1.633173741433433</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.639354451122378</v>
@@ -26430,7 +26370,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.599285312765037</v>
+        <v>1.62660576518816</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.772868433236362</v>
@@ -26519,7 +26459,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616298680134771</v>
+        <v>1.641498487137373</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.783314201298395</v>
@@ -26608,7 +26548,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.616856657880746</v>
+        <v>1.63662111100762</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.625938830172249</v>
@@ -26697,7 +26637,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.607028092708588</v>
+        <v>1.62691288618543</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.776087262348143</v>
@@ -26786,7 +26726,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.570154761603585</v>
+        <v>1.587261191775978</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.395651017876354</v>
@@ -26875,7 +26815,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.572045290741936</v>
+        <v>1.593588093585697</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.572241458768477</v>
@@ -26964,7 +26904,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.594497115146031</v>
+        <v>1.614152016711326</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.545898051352006</v>
@@ -27053,7 +26993,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.585351610039093</v>
+        <v>1.601434567940797</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.568257893718327</v>
@@ -27142,7 +27082,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.519760008946223</v>
+        <v>1.539545935735128</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.343748445625719</v>
@@ -27231,7 +27171,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.519491910576115</v>
+        <v>1.540763185617733</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.317418602812252</v>
@@ -27320,7 +27260,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.5257725595025</v>
+        <v>1.54181303761556</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.371657301565068</v>
@@ -27409,7 +27349,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.518411244032811</v>
+        <v>1.525708326195627</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.351096935488104</v>
@@ -27498,7 +27438,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.496807920881394</v>
+        <v>1.510058604444109</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.35768502921237</v>
@@ -27587,7 +27527,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.501335093518002</v>
+        <v>1.514479855878507</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.389421830576711</v>
@@ -27676,7 +27616,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.491847138242646</v>
+        <v>1.503332219116362</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.381962487924563</v>
@@ -27765,7 +27705,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.484727102572453</v>
+        <v>1.499288268743283</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.342678644098697</v>
@@ -27854,7 +27794,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.482321584444051</v>
+        <v>1.501605955647003</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.427725218070927</v>
@@ -27943,7 +27883,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.508110534583031</v>
+        <v>1.528442321515678</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.383124271140487</v>
@@ -28032,7 +27972,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.507902019926643</v>
+        <v>1.524940802187112</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.463944521818987</v>
@@ -28121,7 +28061,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.535213681404062</v>
+        <v>1.548806371041455</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.269848372988701</v>
@@ -28210,7 +28150,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.534004998777906</v>
+        <v>1.550579606143325</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.451154308167</v>
@@ -28299,7 +28239,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.533702192077193</v>
+        <v>1.549849948090651</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.458483215394186</v>
@@ -28388,7 +28328,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.543308845466183</v>
+        <v>1.563632240907765</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.313551520581721</v>
@@ -28477,7 +28417,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.600934632337511</v>
+        <v>1.619802820364129</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.883278573317307</v>
@@ -28566,7 +28506,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.604596190967462</v>
+        <v>1.622387798708172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.883472242136389</v>
@@ -28655,7 +28595,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.594225360251426</v>
+        <v>1.611956580508916</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.672407898518585</v>
@@ -28744,7 +28684,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.59500936586718</v>
+        <v>1.617021223188108</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.483505345809886</v>
@@ -28833,7 +28773,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.615749570824655</v>
+        <v>1.637228948840776</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.667274330793547</v>
@@ -28922,7 +28862,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.638887470849826</v>
+        <v>1.65620274825522</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.681133416967518</v>
@@ -29011,7 +28951,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.651481202253318</v>
+        <v>1.670241955163839</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.798679749193097</v>
@@ -29100,7 +29040,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.68577444160647</v>
+        <v>1.695592867126029</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.915575658419391</v>
@@ -29189,7 +29129,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.660428812049019</v>
+        <v>1.673397109997479</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.962360926192073</v>
@@ -29278,7 +29218,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.638008252013005</v>
+        <v>1.653431093948697</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.849727706110655</v>
@@ -29367,7 +29307,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.646488290721951</v>
+        <v>1.662820672953879</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.932108302232769</v>
@@ -29456,7 +29396,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.643258130500222</v>
+        <v>1.660860450946109</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.884259669513698</v>
@@ -29545,7 +29485,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.635787541477901</v>
+        <v>1.656810926260678</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.911321524767175</v>
@@ -29634,7 +29574,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.652972732204066</v>
+        <v>1.666688021961848</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.645794888264922</v>
@@ -29920,7 +29860,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.39086213514045</v>
+        <v>1.399854410912265</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.172826211808573</v>
@@ -30009,7 +29949,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416970435609139</v>
+        <v>1.43061639867166</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.056175148343271</v>
@@ -30098,7 +30038,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.446488300223147</v>
+        <v>1.458150296722329</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.050596055948493</v>
@@ -30187,7 +30127,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.506487743769368</v>
+        <v>1.514413718403708</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.131592124076979</v>
@@ -30276,7 +30216,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.534199517440951</v>
+        <v>1.541711142919487</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.071196999619544</v>
@@ -30365,7 +30305,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.559902597315596</v>
+        <v>1.567857192771238</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.164578836230814</v>
@@ -30454,7 +30394,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.567549747121601</v>
+        <v>1.574582067623176</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.080803025177386</v>
@@ -30543,7 +30483,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.55120789633255</v>
+        <v>1.557285231918027</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.055121855915506</v>
@@ -30632,7 +30572,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.538365400858702</v>
+        <v>1.54262502097555</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.098370023338734</v>
@@ -30721,7 +30661,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.533203256658041</v>
+        <v>1.539852787551963</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.047446801536996</v>
@@ -30810,7 +30750,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.525052115798112</v>
+        <v>1.532194444482825</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.016197211858131</v>
@@ -30899,7 +30839,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.51768008189373</v>
+        <v>1.525574225545536</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.981732964565186</v>
@@ -30988,7 +30928,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.522093507281517</v>
+        <v>1.528749997287755</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.042556186326554</v>
@@ -31077,7 +31017,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.567402588690005</v>
+        <v>1.555604027700927</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.931364589516743</v>
@@ -31166,7 +31106,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.594894108488706</v>
+        <v>1.584680589854817</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.680141127314027</v>
@@ -31255,7 +31195,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.59218411720682</v>
+        <v>1.582457294945951</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.830397582847268</v>
@@ -31344,7 +31284,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.588535969591965</v>
+        <v>1.579837452028514</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.694631182407708</v>
@@ -31433,7 +31373,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.598363915813453</v>
+        <v>1.592280443403366</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.929892595528275</v>
@@ -31522,7 +31462,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.602874700662193</v>
+        <v>1.595711206470841</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.004414327542906</v>
@@ -31611,7 +31551,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.591874049137787</v>
+        <v>1.586250886059289</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.769899005972092</v>
@@ -31700,7 +31640,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548465780669569</v>
+        <v>1.546739554653937</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.533592528870696</v>
@@ -31789,7 +31729,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.511570520271694</v>
+        <v>1.518895831488428</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.547275693752989</v>
@@ -31878,7 +31818,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.514220586143035</v>
+        <v>1.523272190808262</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.55066492000117</v>
@@ -31967,7 +31907,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.52163416862572</v>
+        <v>1.528033189515656</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.363580695337754</v>
@@ -32056,7 +31996,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.487818689612904</v>
+        <v>1.50062268927113</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.349322490144206</v>
@@ -32145,7 +32085,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.468127349048835</v>
+        <v>1.480642891111116</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.462033093814144</v>
@@ -32234,7 +32174,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.429863501676353</v>
+        <v>1.446713072338853</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.117386431855705</v>
@@ -32323,7 +32263,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.378552294450453</v>
+        <v>1.39082591109125</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.994208813059785</v>
@@ -32412,7 +32352,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.374956903980139</v>
+        <v>1.388322479468934</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.985704662475271</v>
@@ -32501,7 +32441,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.379303764260361</v>
+        <v>1.392663823964317</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.943900226018295</v>
@@ -32590,7 +32530,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.367424795511213</v>
+        <v>1.375890885404576</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.043757904084538</v>
@@ -32679,7 +32619,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.377659549053146</v>
+        <v>1.391536367197962</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.044803667361833</v>
@@ -32768,7 +32708,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.378047509562633</v>
+        <v>1.393963570941892</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.049125938695064</v>
@@ -32857,7 +32797,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.389178150683227</v>
+        <v>1.406331011195809</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.086870865829035</v>
@@ -32946,7 +32886,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.390581891424478</v>
+        <v>1.406293522455698</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.101684739964369</v>
@@ -33035,7 +32975,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.412523291076763</v>
+        <v>1.428695775791297</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.041385880555315</v>
@@ -33124,7 +33064,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.429479232685892</v>
+        <v>1.445175282943181</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.085856272843754</v>
@@ -33213,7 +33153,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.434318071179369</v>
+        <v>1.450204689887483</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.074934844656656</v>
@@ -33302,7 +33242,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.428910858052943</v>
+        <v>1.445273301241009</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.068629606611352</v>
@@ -33391,7 +33331,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.455054736658835</v>
+        <v>1.467559052899691</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.074653558977542</v>
@@ -33480,7 +33420,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.482520247779</v>
+        <v>1.496603759849638</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.06022500313343</v>
@@ -33569,7 +33509,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.511509829707622</v>
+        <v>1.523223397934011</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.008976042776095</v>
@@ -33658,7 +33598,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.598966362497162</v>
+        <v>1.61064371608783</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.234201864429658</v>
@@ -33747,7 +33687,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.603787852340617</v>
+        <v>1.614572219704145</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.322181935306161</v>
@@ -33836,7 +33776,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.621138975779589</v>
+        <v>1.628702698173444</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.325039166295614</v>
@@ -33925,7 +33865,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.671025784669883</v>
+        <v>1.67719291011871</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.43420417040671</v>
@@ -34014,7 +33954,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.677138590906143</v>
+        <v>1.674242981385945</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.65041199343288</v>
@@ -34103,7 +34043,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.672109855906251</v>
+        <v>1.665924904211234</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.543804317651291</v>
@@ -34192,7 +34132,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.669318397629915</v>
+        <v>1.665175973664948</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.475535435590627</v>
@@ -34281,7 +34221,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.670293339949181</v>
+        <v>1.66718125694712</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.439224506443615</v>
@@ -34370,7 +34310,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.67047050938767</v>
+        <v>1.665300040823675</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.56786043078411</v>
@@ -34459,7 +34399,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.657048617846775</v>
+        <v>1.652242635661058</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.624758120387133</v>
@@ -34548,7 +34488,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.662228575667162</v>
+        <v>1.650369251984322</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.506566063484698</v>
